--- a/data-raw/fluxes/lf_05/lf_05_b_2018-11-15.xlsx
+++ b/data-raw/fluxes/lf_05/lf_05_b_2018-11-15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Documents/data_working/data_packages/hypoxia.flux.analysis.1/inst/extdata/fluxes/lf_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/lf_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6AF820-DBCA-5D44-8840-A8B2E96986E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D892626-49BD-2842-891E-53E47CA2409B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12820" yWindow="2700" windowWidth="22960" windowHeight="15540" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -196,9 +196,6 @@
     <t>2 Valine</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>21%</t>
   </si>
   <si>
@@ -210,15 +207,12 @@
   <si>
     <t>oxygen</t>
   </si>
-  <si>
-    <t>none</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,193 +557,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>40.122999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>52.171999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>51.63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>51.372500000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>51.066000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>50.750300000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2">
+      <c r="B8">
         <v>-24</v>
       </c>
-      <c r="D2">
-        <v>40.122999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="C8">
+        <v>39.648099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>52.171999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="C9">
+        <v>51.2898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="D4">
-        <v>51.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="C10">
+        <v>50.874000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5">
+      <c r="B11">
         <v>48</v>
       </c>
-      <c r="D5">
-        <v>51.372500000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="C11">
+        <v>50.718600000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
+      <c r="B12">
         <v>72</v>
       </c>
-      <c r="D6">
-        <v>51.066000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="C12">
+        <v>50.439799999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
+      <c r="B13">
         <v>96</v>
       </c>
-      <c r="D7">
-        <v>50.750300000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8">
-        <v>-24</v>
-      </c>
-      <c r="D8">
-        <v>39.648099999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>51.2898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10">
-        <v>24</v>
-      </c>
-      <c r="D10">
-        <v>50.874000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>50.718600000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12">
-        <v>72</v>
-      </c>
-      <c r="D12">
-        <v>50.439799999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
       <c r="C13">
-        <v>96</v>
-      </c>
-      <c r="D13">
         <v>50.180999999999997</v>
       </c>
     </row>
@@ -766,11 +721,11 @@
       <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -788,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -799,7 +754,7 @@
         <v>122282</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -811,7 +766,7 @@
         <v>3415854</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -823,7 +778,7 @@
         <v>6339343</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -835,7 +790,7 @@
         <v>12262129</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -847,7 +802,7 @@
         <v>24959736</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -858,7 +813,7 @@
         <v>52236808</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -875,7 +830,7 @@
         <v>3134472</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -893,7 +848,7 @@
         <v>2505475</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -911,7 +866,7 @@
         <v>2328431</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -929,7 +884,7 @@
         <v>8229497</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -947,7 +902,7 @@
         <v>8085721</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -965,7 +920,7 @@
         <v>5821288</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -983,7 +938,7 @@
         <v>13820527</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +956,7 @@
         <v>12006568</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +974,7 @@
         <v>10735067</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +992,7 @@
         <v>16638819</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1010,7 @@
         <v>19325194</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1073,7 +1028,7 @@
         <v>16766468</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1091,7 +1046,7 @@
         <v>14299371</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1064,7 @@
         <v>15347986</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1082,7 @@
         <v>17296064</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1100,7 @@
         <v>3730228</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1118,7 @@
         <v>2631784</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1181,7 +1136,7 @@
         <v>2104210</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1154,7 @@
         <v>2874718</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1217,7 +1172,7 @@
         <v>5689196</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1235,7 +1190,7 @@
         <v>2417706</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1208,7 @@
         <v>3552008</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1226,7 @@
         <v>4231516</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1244,7 @@
         <v>5716758</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1262,7 @@
         <v>6976707</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1280,7 @@
         <v>4351890</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1298,7 @@
         <v>7583109</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1316,7 @@
         <v>7759221</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1379,7 +1334,7 @@
         <v>7897964</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1410,11 +1365,11 @@
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1426,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1392,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1403,7 @@
         <v>0.12509999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1459,7 +1414,7 @@
         <v>0.2208</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1470,7 +1425,7 @@
         <v>0.3357</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1436,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1447,7 @@
         <v>0.62880000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1503,7 +1458,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1469,7 @@
         <v>1.0572999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1480,7 @@
         <v>0.77959999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1492,7 @@
         <v>0.82140000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1504,7 @@
         <v>0.76929999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1516,7 @@
         <v>0.77839999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1528,7 @@
         <v>0.84240000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +1540,7 @@
         <v>0.77139999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1552,7 @@
         <v>0.77790000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1609,7 +1564,7 @@
         <v>0.75819999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1576,7 @@
         <v>0.79179999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +1588,7 @@
         <v>0.72240000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1600,7 @@
         <v>0.72289999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1657,7 +1612,7 @@
         <v>0.76319999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1669,7 +1624,7 @@
         <v>0.6502</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1636,7 @@
         <v>0.60570000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1693,7 +1648,7 @@
         <v>0.66459999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1660,7 @@
         <v>0.80910000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +1672,7 @@
         <v>0.80620000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1729,7 +1684,7 @@
         <v>0.86339999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1696,7 @@
         <v>0.82179999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1708,7 @@
         <v>0.78369999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1765,7 +1720,7 @@
         <v>0.80210000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1732,7 @@
         <v>0.79259999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1744,7 @@
         <v>0.79330000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1756,7 @@
         <v>0.80530000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1813,7 +1768,7 @@
         <v>0.75939999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1780,7 @@
         <v>0.7954</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1792,7 @@
         <v>0.78410000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +1804,7 @@
         <v>0.76790000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +1816,7 @@
         <v>0.77129999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1886,11 +1841,11 @@
       <selection activeCell="A2" sqref="A2:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1902,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1913,7 +1868,7 @@
         <v>119581384</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +1879,7 @@
         <v>173698624</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1935,7 +1890,7 @@
         <v>201010576</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1946,7 +1901,7 @@
         <v>296817792</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1912,7 @@
         <v>516432800</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1968,7 +1923,7 @@
         <v>1007770880</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1979,7 +1934,7 @@
         <v>1486248576</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1990,7 +1945,7 @@
         <v>2381615616</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2001,7 +1956,7 @@
         <v>121796680</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +1968,7 @@
         <v>121318968</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +1980,7 @@
         <v>119894368</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2037,7 +1992,7 @@
         <v>209368560</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2049,7 +2004,7 @@
         <v>212896256</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2016,7 @@
         <v>188928288</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2028,7 @@
         <v>369971168</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2085,7 +2040,7 @@
         <v>337565120</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2052,7 @@
         <v>327714944</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2064,7 @@
         <v>679418432</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2121,7 +2076,7 @@
         <v>565861568</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2133,7 +2088,7 @@
         <v>753855232</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2145,7 +2100,7 @@
         <v>1092947072</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2157,7 +2112,7 @@
         <v>1066190080</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2169,7 +2124,7 @@
         <v>1036807552</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2136,7 @@
         <v>118248680</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2148,7 @@
         <v>120174992</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2205,7 +2160,7 @@
         <v>120919264</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2217,7 +2172,7 @@
         <v>157972352</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2229,7 +2184,7 @@
         <v>160930096</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2241,7 +2196,7 @@
         <v>155783792</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2253,7 +2208,7 @@
         <v>211990368</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2265,7 +2220,7 @@
         <v>219274704</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2232,7 @@
         <v>216974432</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2289,7 +2244,7 @@
         <v>327680608</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2301,7 +2256,7 @@
         <v>336434816</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2313,7 +2268,7 @@
         <v>383936992</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2280,7 @@
         <v>594012480</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2337,7 +2292,7 @@
         <v>487928192</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2362,11 +2317,11 @@
       <selection activeCell="A2" sqref="A2:A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2378,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2344,7 @@
         <v>24059850</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +2355,7 @@
         <v>37574404</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2411,7 +2366,7 @@
         <v>54206232</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2422,7 +2377,7 @@
         <v>95490208</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2388,7 @@
         <v>178410144</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2444,7 +2399,7 @@
         <v>261634688</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2455,7 +2410,7 @@
         <v>362434400</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2466,7 +2421,7 @@
         <v>454803104</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2477,7 +2432,7 @@
         <v>246778896</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2444,7 @@
         <v>246878416</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2456,7 @@
         <v>245029104</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2513,7 +2468,7 @@
         <v>252458368</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2525,7 +2480,7 @@
         <v>239399408</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2537,7 +2492,7 @@
         <v>250052128</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2549,7 +2504,7 @@
         <v>234285760</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2516,7 @@
         <v>231925536</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +2528,7 @@
         <v>234806144</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2585,7 +2540,7 @@
         <v>217638544</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2597,7 +2552,7 @@
         <v>215404944</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2609,7 +2564,7 @@
         <v>216402960</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2620,7 +2575,7 @@
         <v>253340528</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2632,7 +2587,7 @@
         <v>258394976</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2599,7 @@
         <v>250384880</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +2611,7 @@
         <v>252872576</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2623,7 @@
         <v>251086368</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2680,7 +2635,7 @@
         <v>261188064</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2647,7 @@
         <v>255505296</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2659,7 @@
         <v>251478336</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2716,7 +2671,7 @@
         <v>252038304</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +2683,7 @@
         <v>253249280</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2740,7 +2695,7 @@
         <v>235909152</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2752,7 +2707,7 @@
         <v>239794944</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2763,7 +2718,7 @@
         <v>246146928</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2775,7 +2730,7 @@
         <v>240494976</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +2742,7 @@
         <v>252061680</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2799,7 +2754,7 @@
         <v>264241696</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2811,7 +2766,7 @@
         <v>265066592</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +2778,7 @@
         <v>267220016</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2790,7 @@
         <v>259953792</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2847,7 +2802,7 @@
         <v>263378544</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2859,7 +2814,7 @@
         <v>273946400</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2871,7 +2826,7 @@
         <v>284882144</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2883,7 +2838,7 @@
         <v>260587376</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -2895,7 +2850,7 @@
         <v>285287264</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2861,7 @@
         <v>241961024</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -2918,7 +2873,7 @@
         <v>249661808</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -2930,7 +2885,7 @@
         <v>238264160</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -2942,7 +2897,7 @@
         <v>250372080</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -2954,7 +2909,7 @@
         <v>254262720</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +2921,7 @@
         <v>273686496</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -2978,7 +2933,7 @@
         <v>283681472</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +2945,7 @@
         <v>254551360</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3015,11 +2970,11 @@
       <selection activeCell="A2" sqref="A2:A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3163,7 +3118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3300,7 +3255,7 @@
         <v>32.918799999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3437,7 +3392,7 @@
         <v>81.659899999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3577,7 +3532,7 @@
         <v>370.33199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3720,7 +3675,7 @@
         <v>919.85080000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3863,7 +3818,7 @@
         <v>2348.2449000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4000,7 +3955,7 @@
         <v>2060.6662999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4137,7 +4092,7 @@
         <v>1968.825</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4274,7 +4229,7 @@
         <v>2007.6011000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -4411,7 +4366,7 @@
         <v>2141.7786000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4548,7 +4503,7 @@
         <v>1971.4454000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -4688,7 +4643,7 @@
         <v>2169.3013000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -4828,7 +4783,7 @@
         <v>2049.9780000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -4968,7 +4923,7 @@
         <v>2159.1931</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -5105,7 +5060,7 @@
         <v>2113.79</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5245,7 +5200,7 @@
         <v>2204.1963000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -5382,7 +5337,7 @@
         <v>2024.4862000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -5522,7 +5477,7 @@
         <v>2210.6381999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -5662,7 +5617,7 @@
         <v>2007.4395</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -5802,7 +5757,7 @@
         <v>2151.1671999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -5942,7 +5897,7 @@
         <v>2097.2379999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -6079,7 +6034,7 @@
         <v>2114.1143000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6216,7 +6171,7 @@
         <v>1973.4434000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6311,7 @@
         <v>2096.2446</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -6496,7 +6451,7 @@
         <v>2185.6350000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -6633,7 +6588,7 @@
         <v>2106.1028000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6773,7 +6728,7 @@
         <v>2106.4431</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -6910,7 +6865,7 @@
         <v>2144.2937000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -7050,7 +7005,7 @@
         <v>1977.9816000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7190,7 +7145,7 @@
         <v>2138.8429999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -7330,7 +7285,7 @@
         <v>2206.4115999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -7470,7 +7425,7 @@
         <v>2148.6260000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -7610,7 +7565,7 @@
         <v>2220.9695000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -7750,7 +7705,7 @@
         <v>2225.8654999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -7890,7 +7845,7 @@
         <v>2165.7212</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -8030,7 +7985,7 @@
         <v>2184.5149000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -8170,7 +8125,7 @@
         <v>2136.9753000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -8310,7 +8265,7 @@
         <v>2158.7260999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -8450,7 +8405,7 @@
         <v>2209.6925999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -8590,7 +8545,7 @@
         <v>2156.8317999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -8730,7 +8685,7 @@
         <v>2206.6704</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -8870,7 +8825,7 @@
         <v>2164.3092999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -9007,7 +8962,7 @@
         <v>2063.1851000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -9147,7 +9102,7 @@
         <v>2137.165</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -9287,7 +9242,7 @@
         <v>2158.0832999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -9424,7 +9379,7 @@
         <v>2203.9414000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -9561,7 +9516,7 @@
         <v>2153.9787999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -9698,7 +9653,7 @@
         <v>2155.6916999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -9838,7 +9793,7 @@
         <v>2170.6100999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -9978,7 +9933,7 @@
         <v>2239.8110000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -10118,7 +10073,7 @@
         <v>2188.04</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -10255,7 +10210,7 @@
         <v>2088.9175</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -10392,7 +10347,7 @@
         <v>2062.2166000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -10532,7 +10487,7 @@
         <v>2130.645</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -10672,7 +10627,7 @@
         <v>2085.2878000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -10812,7 +10767,7 @@
         <v>2097.9648000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -10952,7 +10907,7 @@
         <v>2121.3442</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -11092,7 +11047,7 @@
         <v>2134.6770000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -11229,7 +11184,7 @@
         <v>2149.8402999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -11366,7 +11321,7 @@
         <v>2105.5448999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -11506,7 +11461,7 @@
         <v>2221.114</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -11643,7 +11598,7 @@
         <v>2132.9263000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -11780,7 +11735,7 @@
         <v>2162.2062999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -11917,7 +11872,7 @@
         <v>2253.6169</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -12054,7 +12009,7 @@
         <v>2160.5598</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
